--- a/Weekly Shop Schedule.xlsx
+++ b/Weekly Shop Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/psandhu/Documents/FEMBA/298D - Real Estate Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7FE1652-529E-2E40-8D92-FF804D3F4DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348FFE03-AFEF-E949-B4CE-293EDFE9702C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="2240" windowWidth="26840" windowHeight="15580" xr2:uid="{6812C2AB-E4CA-B748-BCD9-21A2E4980D7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
   <si>
     <t>Day</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -136,9 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,235 +477,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2918E3-2DA0-8D42-87AB-A9EE2021716D}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>45810</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>45810</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2">
+        <v>45810</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2">
+        <v>45811</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2">
+        <v>45811</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2">
+        <v>45811</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2">
+        <v>45812</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2">
+        <v>45812</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2">
+        <v>45812</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2">
+        <v>45813</v>
+      </c>
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2">
+        <v>45813</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2">
+        <v>45813</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2">
+        <v>45814</v>
+      </c>
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2">
+        <v>45814</v>
+      </c>
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2">
+        <v>45814</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
